--- a/data/trans_dic/P1423_2016_2023-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P1423_2016_2023-Clase-trans_dic.xlsx
@@ -618,13 +618,13 @@
         <v>0.04131583514958772</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.0517064880118107</v>
+        <v>0.05170648801181069</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.02527904940952877</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.0424157376907361</v>
+        <v>0.04241573769073611</v>
       </c>
     </row>
     <row r="5">
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.004473176977933148</v>
+        <v>0.00447345147317454</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.02100195114155821</v>
+        <v>0.02066134306638711</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.02121565409421593</v>
+        <v>0.02362114979733792</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.03510990511848563</v>
+        <v>0.03671837508963054</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.01438943346056875</v>
+        <v>0.01492871337060381</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.03277804225673018</v>
+        <v>0.03231025166149479</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.02640856971200404</v>
+        <v>0.02782182918214844</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.05243552710463022</v>
+        <v>0.05396185164425688</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.07352662318635003</v>
+        <v>0.07254238406603201</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.07175278728998818</v>
+        <v>0.07173481214063204</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.0390122869151977</v>
+        <v>0.03869111827641723</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.05740767497286419</v>
+        <v>0.05658328896807602</v>
       </c>
     </row>
     <row r="7">
@@ -694,7 +694,7 @@
         <v>0.007333907937645896</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.04165694812327164</v>
+        <v>0.04165694812327163</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.02559461731455049</v>
@@ -717,22 +717,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.00240738476957372</v>
+        <v>0.002410549402977234</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.02651149174225462</v>
+        <v>0.02761483066023675</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01090536591101875</v>
+        <v>0.0126725063577547</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.04144220560265818</v>
+        <v>0.0412563589922501</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.008396351537245914</v>
+        <v>0.008169660701367626</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.03653341206335456</v>
+        <v>0.03810691844387426</v>
       </c>
     </row>
     <row r="9">
@@ -743,22 +743,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.02036206728165208</v>
+        <v>0.02204775630396134</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.06436220421507147</v>
+        <v>0.06409687065052318</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.05259595935202222</v>
+        <v>0.0492163416362519</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.07842695238913225</v>
+        <v>0.08028354641558899</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.02833815396903486</v>
+        <v>0.02864339731481214</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.06409818284242216</v>
+        <v>0.06431360611579465</v>
       </c>
     </row>
     <row r="10">
@@ -782,7 +782,7 @@
         <v>0.1157662086640517</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.08593035525863696</v>
+        <v>0.08593035525863697</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.04775128449044466</v>
@@ -799,22 +799,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01528137297082756</v>
+        <v>0.01460367959331433</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.03866415222225732</v>
+        <v>0.03936393638020061</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.06997135322098247</v>
+        <v>0.06951030350706934</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.05785377024796841</v>
+        <v>0.05947609488193923</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.03166856401003616</v>
+        <v>0.03040516340145271</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.04960723924496516</v>
+        <v>0.05007741298112588</v>
       </c>
     </row>
     <row r="12">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.04466691939651331</v>
+        <v>0.04423870775561375</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.08322395113578726</v>
+        <v>0.08461780380428631</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1763186867608188</v>
+        <v>0.1761580921321823</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1204774519581556</v>
+        <v>0.1196463447788887</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.06734218062430451</v>
+        <v>0.06551339792724091</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.08443306982738819</v>
+        <v>0.085406403837541</v>
       </c>
     </row>
     <row r="13">
@@ -858,13 +858,13 @@
         <v>0.02332338902398497</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.04783728825939537</v>
+        <v>0.04783728825939536</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.05256184221422024</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.07960877260470377</v>
+        <v>0.07960877260470375</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.03554670398093788</v>
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01541451439277362</v>
+        <v>0.01497252207573819</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.03697312020542483</v>
+        <v>0.03651180131018211</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.03920009553693184</v>
+        <v>0.03855218798739651</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.06458408604649785</v>
+        <v>0.06492501965965917</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.027649563880097</v>
+        <v>0.02723547339652156</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.05224137577055003</v>
+        <v>0.05211207887228951</v>
       </c>
     </row>
     <row r="15">
@@ -907,22 +907,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.03481294351171337</v>
+        <v>0.03394293934931743</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.06175660541168791</v>
+        <v>0.06214169745908023</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.07182531580577298</v>
+        <v>0.07037907719173254</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.09475206378436504</v>
+        <v>0.09437559880024679</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.04517435184896666</v>
+        <v>0.04458309007007485</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.07185403690966996</v>
+        <v>0.07129362900798121</v>
       </c>
     </row>
     <row r="16">
@@ -940,7 +940,7 @@
         <v>0.03211860696326495</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.05100508481186786</v>
+        <v>0.05100508481186785</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>0.1017733057778436</v>
@@ -963,22 +963,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.02110137429826367</v>
+        <v>0.02081196265044718</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.03450959019113778</v>
+        <v>0.03421638733287954</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.07922380345531904</v>
+        <v>0.08002063344703617</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1002057986443487</v>
+        <v>0.1021660203833919</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.05701213929315821</v>
+        <v>0.05719015510747302</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.07799185324746946</v>
+        <v>0.07851796880590511</v>
       </c>
     </row>
     <row r="18">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.05058024240969382</v>
+        <v>0.04942682395585328</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.07156839255694404</v>
+        <v>0.07245909764969929</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1261404757107013</v>
+        <v>0.1254778140485071</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1354998172530151</v>
+        <v>0.1376924372586713</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.08624254655705137</v>
+        <v>0.08502962545533614</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1059996033813709</v>
+        <v>0.104443383796061</v>
       </c>
     </row>
     <row r="19">
@@ -1028,7 +1028,7 @@
         <v>0.07533539352786138</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.08030246659467595</v>
+        <v>0.08030246659467598</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.06110271460390818</v>
@@ -1048,19 +1048,19 @@
         <v>0</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.02881737849646228</v>
+        <v>0.02615341552068017</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.06093097118299926</v>
+        <v>0.06053527011150728</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.06546491538142943</v>
+        <v>0.06503936929959427</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.04819744311255242</v>
+        <v>0.04793195356593886</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.06086507163171576</v>
+        <v>0.06098160591047692</v>
       </c>
     </row>
     <row r="21">
@@ -1071,22 +1071,22 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.02320239309297237</v>
+        <v>0.02558725687262978</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.1201691436598971</v>
+        <v>0.1101377398030047</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.09376025979710663</v>
+        <v>0.09265699692135942</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.09666262776069616</v>
+        <v>0.09551458771989624</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.07682631642130404</v>
+        <v>0.07538905345679102</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.09261543610780165</v>
+        <v>0.09088910539884053</v>
       </c>
     </row>
     <row r="22">
@@ -1104,19 +1104,19 @@
         <v>0.02084224976188603</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.04738992024685998</v>
+        <v>0.04738992024685997</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>0.06885168614265418</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.08267947414232803</v>
+        <v>0.082679474142328</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.04535318394717937</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>0.06551723857267043</v>
+        <v>0.0655172385726704</v>
       </c>
     </row>
     <row r="23">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.0160140256815284</v>
+        <v>0.01648054921004159</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.04110573009768199</v>
+        <v>0.03996372711086003</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.06074896643888049</v>
+        <v>0.0609178251708082</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.07540514886092155</v>
+        <v>0.07531981920406156</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.04053891466033627</v>
+        <v>0.04010121442858264</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.05947030858771971</v>
+        <v>0.06091355785861673</v>
       </c>
     </row>
     <row r="24">
@@ -1153,22 +1153,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.02611853817404292</v>
+        <v>0.02656072119238237</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.05552975785920037</v>
+        <v>0.05472901949356501</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.07778780692878776</v>
+        <v>0.07829505012488208</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.08989537622361142</v>
+        <v>0.09048434708138989</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.05077258227703822</v>
+        <v>0.05081545098593114</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.07100784370567328</v>
+        <v>0.07118908496572575</v>
       </c>
     </row>
     <row r="25">
@@ -1357,22 +1357,22 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>1919</v>
+        <v>1920</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>11520</v>
+        <v>11333</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>7363</v>
+        <v>8198</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>17148</v>
+        <v>17934</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>11168</v>
+        <v>11587</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>33988</v>
+        <v>33503</v>
       </c>
     </row>
     <row r="7">
@@ -1383,22 +1383,22 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>11332</v>
+        <v>11938</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>28762</v>
+        <v>29599</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>25518</v>
+        <v>25176</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>35045</v>
+        <v>35036</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>30279</v>
+        <v>30030</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>59527</v>
+        <v>58673</v>
       </c>
     </row>
     <row r="8">
@@ -1465,22 +1465,22 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>12811</v>
+        <v>13344</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>4060</v>
+        <v>4718</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>17509</v>
+        <v>17430</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>6293</v>
+        <v>6123</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>33088</v>
+        <v>34514</v>
       </c>
     </row>
     <row r="11">
@@ -1491,22 +1491,22 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>7681</v>
+        <v>8317</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>31101</v>
+        <v>30972</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>19580</v>
+        <v>18322</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>33135</v>
+        <v>33919</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>21239</v>
+        <v>21468</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>58054</v>
+        <v>58249</v>
       </c>
     </row>
     <row r="12">
@@ -1573,22 +1573,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>7976</v>
+        <v>7622</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>18201</v>
+        <v>18530</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>11624</v>
+        <v>11547</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>10847</v>
+        <v>11152</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>21789</v>
+        <v>20920</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>32654</v>
+        <v>32963</v>
       </c>
     </row>
     <row r="15">
@@ -1599,22 +1599,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>23312</v>
+        <v>23089</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>39177</v>
+        <v>39833</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>29291</v>
+        <v>29264</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>22589</v>
+        <v>22433</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>46334</v>
+        <v>45076</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>55577</v>
+        <v>56218</v>
       </c>
     </row>
     <row r="16">
@@ -1681,22 +1681,22 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>17721</v>
+        <v>17213</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>41820</v>
+        <v>41299</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>32374</v>
+        <v>31839</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>55526</v>
+        <v>55819</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>54622</v>
+        <v>53804</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>104005</v>
+        <v>103748</v>
       </c>
     </row>
     <row r="19">
@@ -1707,22 +1707,22 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>40022</v>
+        <v>39022</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>69853</v>
+        <v>70289</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>59319</v>
+        <v>58124</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>81463</v>
+        <v>81140</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>89243</v>
+        <v>88075</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>143051</v>
+        <v>141935</v>
       </c>
     </row>
     <row r="20">
@@ -1789,22 +1789,22 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>13098</v>
+        <v>12918</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>19546</v>
+        <v>19380</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>58486</v>
+        <v>59075</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>83044</v>
+        <v>84668</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>77477</v>
+        <v>77719</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>108808</v>
+        <v>109542</v>
       </c>
     </row>
     <row r="23">
@@ -1815,22 +1815,22 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>31395</v>
+        <v>30680</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>40536</v>
+        <v>41040</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>93122</v>
+        <v>92633</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>112293</v>
+        <v>114110</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>117199</v>
+        <v>115551</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>147883</v>
+        <v>145712</v>
       </c>
     </row>
     <row r="24">
@@ -1900,19 +1900,19 @@
         <v>0</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>6836</v>
+        <v>6204</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>65929</v>
+        <v>65501</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>55226</v>
+        <v>54867</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>65990</v>
+        <v>65627</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>65784</v>
+        <v>65910</v>
       </c>
     </row>
     <row r="27">
@@ -1923,22 +1923,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>6662</v>
+        <v>7347</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>28507</v>
+        <v>26128</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>101451</v>
+        <v>100257</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>81544</v>
+        <v>80576</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>105188</v>
+        <v>103220</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>100101</v>
+        <v>98235</v>
       </c>
     </row>
     <row r="28">
@@ -2005,22 +2005,22 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>54219</v>
+        <v>55799</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>141288</v>
+        <v>137363</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>214541</v>
+        <v>215137</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>273757</v>
+        <v>273447</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>280421</v>
+        <v>277393</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>420317</v>
+        <v>430517</v>
       </c>
     </row>
     <row r="31">
@@ -2031,22 +2031,22 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>88430</v>
+        <v>89927</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>190867</v>
+        <v>188114</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>274715</v>
+        <v>276506</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>326363</v>
+        <v>328502</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>351210</v>
+        <v>351507</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>501860</v>
+        <v>503141</v>
       </c>
     </row>
     <row r="32">
